--- a/BackTest/2020-01-23 BackTest BTC.xlsx
+++ b/BackTest/2020-01-23 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7018,11 +7018,17 @@
         <v>-6.745004260000002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>9819000</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7057,17 @@
         <v>-18.02000426</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9816000</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7096,17 @@
         <v>-7.04290426</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9796000</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,7 +7135,7 @@
         <v>-19.34690426</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>9804000</v>
@@ -7125,7 +7143,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7156,7 +7174,7 @@
         <v>-18.05380426</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>9788000</v>
@@ -7195,7 +7213,7 @@
         <v>-23.63320426</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>9800000</v>
@@ -7234,7 +7252,7 @@
         <v>-6.058904260000002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>9799000</v>
@@ -7273,7 +7291,7 @@
         <v>-7.616490180000002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>9806000</v>
@@ -7312,7 +7330,7 @@
         <v>-4.139990180000002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>9801000</v>
@@ -7351,7 +7369,7 @@
         <v>-4.585690180000002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>9824000</v>
@@ -7390,7 +7408,7 @@
         <v>-3.583290180000002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>9818000</v>
@@ -7429,7 +7447,7 @@
         <v>-5.060790180000002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>9821000</v>
@@ -7468,7 +7486,7 @@
         <v>-4.960190180000002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>9796000</v>
@@ -7507,7 +7525,7 @@
         <v>-4.470390180000003</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>9810000</v>
@@ -7546,9 +7564,11 @@
         <v>5.136209819999998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>9819000</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7583,9 +7603,11 @@
         <v>31.43983293</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>9879000</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -11098,7 +11120,7 @@
         <v>113.39972108</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -14872,16 +14894,18 @@
         <v>146.9251836300001</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
       <c r="M413" t="inlineStr"/>
     </row>
     <row r="414">
@@ -14907,11 +14931,15 @@
         <v>146.9251836300001</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14940,11 +14968,15 @@
         <v>148.2779836300001</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14977,7 +15009,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15010,7 +15046,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15039,11 +15079,15 @@
         <v>160.5396520300001</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15076,7 +15120,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15109,7 +15157,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +15190,15 @@
         <v>177.4051456200001</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15171,11 +15227,15 @@
         <v>170.0390456200001</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15204,11 +15264,15 @@
         <v>159.7300550400001</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15237,11 +15301,15 @@
         <v>159.7300550400001</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15270,11 +15338,15 @@
         <v>162.1805326600001</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15307,7 +15379,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15340,7 +15416,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15373,7 +15453,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15406,7 +15490,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +15527,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15472,7 +15564,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15505,7 +15601,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15538,7 +15638,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15571,7 +15675,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +15708,16 @@
         <v>155.1586886600001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="inlineStr"/>
     </row>
     <row r="436">
@@ -15633,7 +15743,7 @@
         <v>151.1585886600001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15666,7 +15776,7 @@
         <v>152.2578890600001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15699,7 +15809,7 @@
         <v>152.9041890600001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15732,7 +15842,7 @@
         <v>155.0483674300001</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15765,7 +15875,7 @@
         <v>155.0118674300001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15798,7 +15908,7 @@
         <v>155.4253674300001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15831,7 +15941,7 @@
         <v>154.9062674300001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15864,7 +15974,7 @@
         <v>154.9062674300001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15897,7 +16007,7 @@
         <v>154.9142674300001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15930,7 +16040,7 @@
         <v>151.8152674300001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15963,7 +16073,7 @@
         <v>151.8152674300001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15996,7 +16106,7 @@
         <v>151.7399674300001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16029,7 +16139,7 @@
         <v>149.4810668000001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16062,7 +16172,7 @@
         <v>155.5443733800001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16095,7 +16205,7 @@
         <v>151.1291719100001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16128,7 +16238,7 @@
         <v>149.3320727500001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16161,7 +16271,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16194,7 +16304,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16227,7 +16337,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16260,7 +16370,7 @@
         <v>150.1192727500001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16293,7 +16403,7 @@
         <v>151.3277727500001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16326,7 +16436,7 @@
         <v>152.1656727500001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -25335,7 +25445,7 @@
         <v>186.8154396000002</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25368,7 +25478,7 @@
         <v>183.1913399800002</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25401,7 +25511,7 @@
         <v>187.1564399800002</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25434,7 +25544,7 @@
         <v>187.1564399800002</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25467,7 +25577,7 @@
         <v>187.7977695500002</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25500,7 +25610,7 @@
         <v>193.9697399800002</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25533,7 +25643,7 @@
         <v>192.9018399800001</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25566,7 +25676,7 @@
         <v>190.6200921000001</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25599,7 +25709,7 @@
         <v>191.0493155900001</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25632,7 +25742,7 @@
         <v>191.6052155900001</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25665,7 +25775,7 @@
         <v>197.8835155900001</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25698,7 +25808,7 @@
         <v>196.4344155900002</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25731,7 +25841,7 @@
         <v>194.6417155900002</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25764,7 +25874,7 @@
         <v>196.5242943000002</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25797,7 +25907,7 @@
         <v>195.9485102800002</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25830,7 +25940,7 @@
         <v>197.8232341800002</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25863,7 +25973,7 @@
         <v>192.1240341800002</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25896,7 +26006,7 @@
         <v>192.1240341800002</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25929,7 +26039,7 @@
         <v>189.0895838000002</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25962,7 +26072,7 @@
         <v>191.3316243600001</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25995,7 +26105,7 @@
         <v>185.5358243400001</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26028,7 +26138,7 @@
         <v>188.2585941800002</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26061,7 +26171,7 @@
         <v>185.9690941800002</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26094,7 +26204,7 @@
         <v>187.5904302300002</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26127,7 +26237,7 @@
         <v>187.5904302300002</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26160,7 +26270,7 @@
         <v>187.3565302300001</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26193,7 +26303,7 @@
         <v>185.2163805200001</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26226,7 +26336,7 @@
         <v>190.7894358200001</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26259,7 +26369,7 @@
         <v>190.5405358200001</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26292,7 +26402,7 @@
         <v>190.5405358200001</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26325,7 +26435,7 @@
         <v>187.5768138000001</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26358,7 +26468,7 @@
         <v>187.5768138000001</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26391,7 +26501,7 @@
         <v>189.6661795300001</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26424,7 +26534,7 @@
         <v>187.8541795300001</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26457,7 +26567,7 @@
         <v>187.3832795300001</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26490,7 +26600,7 @@
         <v>190.4290195700001</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26523,7 +26633,7 @@
         <v>187.5499362100001</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26556,7 +26666,7 @@
         <v>187.5499362100001</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26589,7 +26699,7 @@
         <v>188.4195741600001</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26622,7 +26732,7 @@
         <v>183.1059203400001</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26655,7 +26765,7 @@
         <v>181.7088203400001</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26688,7 +26798,7 @@
         <v>181.7088203400001</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26721,7 +26831,7 @@
         <v>184.3411203400001</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26754,7 +26864,7 @@
         <v>188.4191203400001</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26787,7 +26897,7 @@
         <v>188.7720203400001</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26820,7 +26930,7 @@
         <v>189.7881203400001</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26853,7 +26963,7 @@
         <v>189.7881203400001</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26886,7 +26996,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26919,7 +27029,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26952,7 +27062,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26985,7 +27095,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27018,7 +27128,7 @@
         <v>191.9772203900001</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27051,7 +27161,7 @@
         <v>190.9942203900001</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27084,7 +27194,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27117,7 +27227,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27150,7 +27260,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27183,7 +27293,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27216,7 +27326,7 @@
         <v>187.3518303500001</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27249,7 +27359,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27282,7 +27392,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27315,7 +27425,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27348,7 +27458,7 @@
         <v>189.3194303300001</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27381,7 +27491,7 @@
         <v>189.3194303300001</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27414,7 +27524,7 @@
         <v>187.8900303300001</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27447,7 +27557,7 @@
         <v>188.0073303300001</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27480,7 +27590,7 @@
         <v>188.0073303300001</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27513,7 +27623,7 @@
         <v>187.6013886800001</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27546,7 +27656,7 @@
         <v>182.0139886800001</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27579,7 +27689,7 @@
         <v>169.3364886800001</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27612,7 +27722,7 @@
         <v>168.8760886800001</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27645,7 +27755,7 @@
         <v>168.9349924600001</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27678,7 +27788,7 @@
         <v>168.7208924600001</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27711,7 +27821,7 @@
         <v>169.3956924600001</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27744,7 +27854,7 @@
         <v>171.6545924600001</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27777,7 +27887,7 @@
         <v>173.3046924600002</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27810,7 +27920,7 @@
         <v>173.1796924600002</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27843,7 +27953,7 @@
         <v>168.9005924600002</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27876,7 +27986,7 @@
         <v>165.8158924600002</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27909,7 +28019,7 @@
         <v>165.1689948700001</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27942,7 +28052,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27975,7 +28085,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28008,7 +28118,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28041,7 +28151,7 @@
         <v>162.3187855600002</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28074,7 +28184,7 @@
         <v>160.7366490300001</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28107,7 +28217,7 @@
         <v>161.0867490300001</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28140,7 +28250,7 @@
         <v>161.6060811600001</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28173,7 +28283,7 @@
         <v>160.6340980100001</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28206,7 +28316,7 @@
         <v>160.6061980100002</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28239,7 +28349,7 @@
         <v>160.7311980100002</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28272,7 +28382,7 @@
         <v>160.7311980100002</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28503,7 +28613,7 @@
         <v>155.2719138600002</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28800,7 +28910,7 @@
         <v>167.4494534200002</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28866,7 +28976,7 @@
         <v>168.2103524200002</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28998,7 +29108,7 @@
         <v>168.9106524200002</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29031,7 +29141,7 @@
         <v>168.9106524200002</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29064,7 +29174,7 @@
         <v>165.3456524200002</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29097,7 +29207,7 @@
         <v>165.1252524200002</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29130,7 +29240,7 @@
         <v>166.7144524200002</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29163,7 +29273,7 @@
         <v>166.6066524200002</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29196,7 +29306,7 @@
         <v>166.9856524200002</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29229,7 +29339,7 @@
         <v>166.3739524200001</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29295,7 +29405,7 @@
         <v>170.4870524200001</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29328,7 +29438,7 @@
         <v>170.4602922600001</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29361,7 +29471,7 @@
         <v>170.4602922600001</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29394,7 +29504,7 @@
         <v>170.5913924000001</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29427,7 +29537,7 @@
         <v>170.5913924000001</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29460,7 +29570,7 @@
         <v>170.4063924000001</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29493,7 +29603,7 @@
         <v>170.5575924000001</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29526,7 +29636,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29559,7 +29669,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29592,7 +29702,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29625,7 +29735,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29658,7 +29768,7 @@
         <v>170.8827924000001</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29691,7 +29801,7 @@
         <v>174.2244884000001</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29724,7 +29834,7 @@
         <v>172.5512884000001</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29757,7 +29867,7 @@
         <v>171.1868884000001</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29790,7 +29900,7 @@
         <v>171.1868884000001</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29823,7 +29933,7 @@
         <v>169.3388884000001</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29856,7 +29966,7 @@
         <v>172.5631884000001</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29889,7 +29999,7 @@
         <v>171.6521884000001</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29922,7 +30032,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29955,7 +30065,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29988,7 +30098,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30021,7 +30131,7 @@
         <v>172.7227884000001</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30054,7 +30164,7 @@
         <v>165.7796884000001</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30087,7 +30197,7 @@
         <v>168.4811884000001</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30120,7 +30230,7 @@
         <v>168.1731926000002</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30153,7 +30263,7 @@
         <v>169.3199926000002</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30186,7 +30296,7 @@
         <v>169.9465926000002</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30219,7 +30329,7 @@
         <v>167.6657926000002</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30252,7 +30362,7 @@
         <v>168.1498925600002</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30285,7 +30395,7 @@
         <v>168.2213926000002</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30318,7 +30428,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30351,7 +30461,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30384,7 +30494,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30417,7 +30527,7 @@
         <v>165.8612926000002</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30450,7 +30560,7 @@
         <v>166.9567926000002</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30483,7 +30593,7 @@
         <v>165.6499004100002</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30516,7 +30626,7 @@
         <v>165.6499004100002</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30549,7 +30659,7 @@
         <v>172.8371004100001</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30582,7 +30692,7 @@
         <v>171.8731004100001</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30615,7 +30725,7 @@
         <v>173.5102004100002</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30648,7 +30758,7 @@
         <v>173.5965004100001</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30681,7 +30791,7 @@
         <v>173.5965004100001</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30714,7 +30824,7 @@
         <v>176.5489004100002</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30747,7 +30857,7 @@
         <v>191.1565004100001</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30780,7 +30890,7 @@
         <v>223.5641013900001</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30813,7 +30923,7 @@
         <v>226.7788013900001</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30846,7 +30956,7 @@
         <v>240.2364013900001</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30879,7 +30989,7 @@
         <v>226.1448013900001</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30912,7 +31022,7 @@
         <v>241.6696637000001</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30945,7 +31055,7 @@
         <v>247.6111892100001</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30978,7 +31088,7 @@
         <v>240.9236206400001</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31011,7 +31121,7 @@
         <v>247.2543894200001</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31044,7 +31154,7 @@
         <v>227.4263723800001</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31077,7 +31187,7 @@
         <v>231.6780723600002</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31110,7 +31220,7 @@
         <v>222.8836037900002</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31143,7 +31253,7 @@
         <v>208.1217037600002</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31176,7 +31286,7 @@
         <v>201.8161107000002</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31209,7 +31319,7 @@
         <v>183.3329924400002</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31242,7 +31352,7 @@
         <v>162.8014796700002</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31275,7 +31385,7 @@
         <v>167.0503242000002</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31308,7 +31418,7 @@
         <v>174.6490604500002</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31341,7 +31451,7 @@
         <v>169.6503542800002</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31374,7 +31484,7 @@
         <v>170.6473542800002</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31407,7 +31517,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31440,7 +31550,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31473,7 +31583,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31506,7 +31616,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31539,7 +31649,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31572,7 +31682,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31605,7 +31715,7 @@
         <v>175.5086538300002</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31638,7 +31748,7 @@
         <v>177.2974538300002</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31671,7 +31781,7 @@
         <v>181.5118463200002</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31704,7 +31814,7 @@
         <v>181.5118463200002</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31737,7 +31847,7 @@
         <v>182.0291463200002</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31770,7 +31880,7 @@
         <v>182.0291463200002</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31803,7 +31913,7 @@
         <v>183.4090450300002</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31836,7 +31946,7 @@
         <v>182.0358213000002</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31869,7 +31979,7 @@
         <v>185.4448502900002</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31902,7 +32012,7 @@
         <v>179.8672506900002</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32001,7 +32111,7 @@
         <v>186.9984952000001</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32034,7 +32144,7 @@
         <v>179.7638143500002</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32166,7 +32276,7 @@
         <v>181.4279106000002</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32232,7 +32342,7 @@
         <v>178.9453106000001</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32265,7 +32375,7 @@
         <v>174.4281106000001</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32298,7 +32408,7 @@
         <v>174.4281106000001</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32331,7 +32441,7 @@
         <v>174.7209106000001</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32364,7 +32474,7 @@
         <v>172.8631106000001</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32397,7 +32507,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32430,7 +32540,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32463,7 +32573,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32496,7 +32606,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32529,7 +32639,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32562,7 +32672,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32595,7 +32705,7 @@
         <v>161.4839106000001</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32628,7 +32738,7 @@
         <v>161.4839106000001</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32661,7 +32771,7 @@
         <v>161.5952106000001</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32694,7 +32804,7 @@
         <v>161.4936106000002</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32727,7 +32837,7 @@
         <v>161.4238800100001</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32760,7 +32870,7 @@
         <v>162.6316800100001</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32793,7 +32903,7 @@
         <v>159.8577241400001</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32826,7 +32936,7 @@
         <v>159.8782229800001</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32859,7 +32969,7 @@
         <v>159.8615229800001</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32892,7 +33002,7 @@
         <v>161.3109875200001</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32925,7 +33035,7 @@
         <v>161.7451812000001</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32958,7 +33068,7 @@
         <v>161.4124812000001</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32991,7 +33101,7 @@
         <v>161.6003822700002</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33024,7 +33134,7 @@
         <v>160.9090822700001</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33057,7 +33167,7 @@
         <v>161.3272822700002</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33090,7 +33200,7 @@
         <v>159.7013822700002</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33123,7 +33233,7 @@
         <v>159.7013822700002</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33156,7 +33266,7 @@
         <v>160.0635822700002</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33189,7 +33299,7 @@
         <v>92.21153720000015</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33222,7 +33332,7 @@
         <v>106.8448949800001</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33255,7 +33365,7 @@
         <v>103.7920035100001</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33288,7 +33398,7 @@
         <v>103.7920035100001</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33321,7 +33431,7 @@
         <v>112.7202120400001</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33354,7 +33464,7 @@
         <v>96.59367479000015</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33387,7 +33497,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33420,7 +33530,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33453,7 +33563,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33486,7 +33596,7 @@
         <v>67.69843665000016</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33519,7 +33629,7 @@
         <v>77.63013665000017</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33552,7 +33662,7 @@
         <v>79.90431656000017</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33585,7 +33695,7 @@
         <v>79.29751656000016</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33618,7 +33728,7 @@
         <v>82.01511656000017</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -44750,6 +44860,6 @@
       <c r="M1318" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTC.xlsx
+++ b/BackTest/2020-01-23 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7018,17 +7018,11 @@
         <v>-6.745004260000002</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>9819000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7057,17 +7051,11 @@
         <v>-18.02000426</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>9816000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7096,17 +7084,11 @@
         <v>-7.04290426</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>9796000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7135,17 +7117,11 @@
         <v>-19.34690426</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>9804000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7174,17 +7150,11 @@
         <v>-18.05380426</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>9788000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7213,17 +7183,11 @@
         <v>-23.63320426</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>9800000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7252,17 +7216,11 @@
         <v>-6.058904260000002</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>9799000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7291,17 +7249,11 @@
         <v>-7.616490180000002</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>9806000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7330,17 +7282,11 @@
         <v>-4.139990180000002</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>9801000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7369,17 +7315,11 @@
         <v>-4.585690180000002</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>9824000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7408,17 +7348,11 @@
         <v>-3.583290180000002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>9818000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7447,17 +7381,11 @@
         <v>-5.060790180000002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>9821000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7486,17 +7414,11 @@
         <v>-4.960190180000002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>9796000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7525,17 +7447,11 @@
         <v>-4.470390180000003</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>9810000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7564,17 +7480,11 @@
         <v>5.136209819999998</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>9819000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7603,17 +7513,11 @@
         <v>31.43983293</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>9879000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7646,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7979,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8127,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8201,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8312,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8386,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8423,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8460,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8534,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8571,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8682,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8715,15 +8503,11 @@
         <v>82.86925928000001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8752,15 +8536,11 @@
         <v>82.70545928000001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8789,15 +8569,11 @@
         <v>81.26505928000002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8826,15 +8602,11 @@
         <v>81.06055928000002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8863,15 +8635,11 @@
         <v>79.91275928000002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8900,15 +8668,11 @@
         <v>80.92255928000002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8937,15 +8701,11 @@
         <v>80.65625928000001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8974,15 +8734,11 @@
         <v>81.32115928000002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9011,15 +8767,11 @@
         <v>82.95295928000002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9048,15 +8800,11 @@
         <v>81.17885928000001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9085,15 +8833,11 @@
         <v>81.53075928000001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9122,15 +8866,11 @@
         <v>81.11675847000001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9159,15 +8899,11 @@
         <v>81.83675847000001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9196,15 +8932,11 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9233,15 +8965,11 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9270,15 +8998,11 @@
         <v>78.57425847000002</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9307,15 +9031,11 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9344,15 +9064,11 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9681,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9718,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9792,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10014,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10088,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10162,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10273,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10310,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10347,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10421,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10458,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10495,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10532,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10569,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10717,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10754,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10791,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10828,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10865,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10902,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10939,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10976,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11087,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11124,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11161,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11198,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11235,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11272,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11309,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11346,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11420,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11531,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11568,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11642,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11679,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11716,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11753,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11790,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11864,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11901,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11938,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11975,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12012,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12049,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12086,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12123,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12160,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12234,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12271,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12308,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12345,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12382,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12419,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12456,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12493,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12530,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12567,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12604,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12641,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12678,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12715,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12752,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12789,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12900,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12937,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12974,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13011,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13048,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13085,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13122,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13159,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13196,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13233,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13270,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13307,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13381,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13418,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13492,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13529,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13566,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13603,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13640,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13677,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13714,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13751,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13788,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13825,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13862,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13899,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13936,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13973,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14010,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14084,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14121,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14158,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14195,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14232,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14269,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14306,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14343,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14380,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14417,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14454,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14491,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14528,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14565,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14602,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14639,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14676,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14713,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14750,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14787,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14824,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14861,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14898,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14935,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14972,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15009,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15046,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15083,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15120,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15157,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15194,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15231,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15305,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15342,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15379,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15416,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15453,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15527,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15564,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15601,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15638,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15675,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15708,16 +14740,14 @@
         <v>155.1586886600001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
       <c r="M435" t="inlineStr"/>
     </row>
     <row r="436">
@@ -15743,7 +14773,7 @@
         <v>151.1585886600001</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15776,7 +14806,7 @@
         <v>152.2578890600001</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15809,7 +14839,7 @@
         <v>152.9041890600001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15842,7 +14872,7 @@
         <v>155.0483674300001</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15875,7 +14905,7 @@
         <v>155.0118674300001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15908,7 +14938,7 @@
         <v>155.4253674300001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15941,7 +14971,7 @@
         <v>154.9062674300001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15974,7 +15004,7 @@
         <v>154.9062674300001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16007,7 +15037,7 @@
         <v>154.9142674300001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16040,7 +15070,7 @@
         <v>151.8152674300001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16073,7 +15103,7 @@
         <v>151.8152674300001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16106,7 +15136,7 @@
         <v>151.7399674300001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16139,7 +15169,7 @@
         <v>149.4810668000001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16172,7 +15202,7 @@
         <v>155.5443733800001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16205,7 +15235,7 @@
         <v>151.1291719100001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16238,7 +15268,7 @@
         <v>149.3320727500001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16271,7 +15301,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16304,7 +15334,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16337,7 +15367,7 @@
         <v>151.1122727500001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16370,7 +15400,7 @@
         <v>150.1192727500001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16403,7 +15433,7 @@
         <v>151.3277727500001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16436,7 +15466,7 @@
         <v>152.1656727500001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -25676,7 +24706,7 @@
         <v>190.6200921000001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25709,7 +24739,7 @@
         <v>191.0493155900001</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25742,7 +24772,7 @@
         <v>191.6052155900001</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25775,7 +24805,7 @@
         <v>197.8835155900001</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25808,7 +24838,7 @@
         <v>196.4344155900002</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25841,7 +24871,7 @@
         <v>194.6417155900002</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25874,7 +24904,7 @@
         <v>196.5242943000002</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25907,7 +24937,7 @@
         <v>195.9485102800002</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25940,7 +24970,7 @@
         <v>197.8232341800002</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25973,7 +25003,7 @@
         <v>192.1240341800002</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26006,7 +25036,7 @@
         <v>192.1240341800002</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26039,7 +25069,7 @@
         <v>189.0895838000002</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26072,7 +25102,7 @@
         <v>191.3316243600001</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26105,7 +25135,7 @@
         <v>185.5358243400001</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26138,7 +25168,7 @@
         <v>188.2585941800002</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26171,7 +25201,7 @@
         <v>185.9690941800002</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26204,7 +25234,7 @@
         <v>187.5904302300002</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26237,7 +25267,7 @@
         <v>187.5904302300002</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26270,7 +25300,7 @@
         <v>187.3565302300001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26303,7 +25333,7 @@
         <v>185.2163805200001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26336,7 +25366,7 @@
         <v>190.7894358200001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26369,7 +25399,7 @@
         <v>190.5405358200001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26402,7 +25432,7 @@
         <v>190.5405358200001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26435,7 +25465,7 @@
         <v>187.5768138000001</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26468,7 +25498,7 @@
         <v>187.5768138000001</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26501,7 +25531,7 @@
         <v>189.6661795300001</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26534,7 +25564,7 @@
         <v>187.8541795300001</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26567,7 +25597,7 @@
         <v>187.3832795300001</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26600,7 +25630,7 @@
         <v>190.4290195700001</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26633,7 +25663,7 @@
         <v>187.5499362100001</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26666,7 +25696,7 @@
         <v>187.5499362100001</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26699,7 +25729,7 @@
         <v>188.4195741600001</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26732,7 +25762,7 @@
         <v>183.1059203400001</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26765,7 +25795,7 @@
         <v>181.7088203400001</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26798,7 +25828,7 @@
         <v>181.7088203400001</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26831,7 +25861,7 @@
         <v>184.3411203400001</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26864,7 +25894,7 @@
         <v>188.4191203400001</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26897,7 +25927,7 @@
         <v>188.7720203400001</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26930,7 +25960,7 @@
         <v>189.7881203400001</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26963,7 +25993,7 @@
         <v>189.7881203400001</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26996,7 +26026,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27029,7 +26059,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27062,7 +26092,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27095,7 +26125,7 @@
         <v>187.7957203900001</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27128,7 +26158,7 @@
         <v>191.9772203900001</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27161,7 +26191,7 @@
         <v>190.9942203900001</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27194,7 +26224,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27227,7 +26257,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27260,7 +26290,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27293,7 +26323,7 @@
         <v>192.1006454500001</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27326,7 +26356,7 @@
         <v>187.3518303500001</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27359,7 +26389,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27392,7 +26422,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27425,7 +26455,7 @@
         <v>186.8956303500001</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27458,7 +26488,7 @@
         <v>189.3194303300001</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27491,7 +26521,7 @@
         <v>189.3194303300001</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27524,7 +26554,7 @@
         <v>187.8900303300001</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27557,7 +26587,7 @@
         <v>188.0073303300001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27590,7 +26620,7 @@
         <v>188.0073303300001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27623,7 +26653,7 @@
         <v>187.6013886800001</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27656,7 +26686,7 @@
         <v>182.0139886800001</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27689,7 +26719,7 @@
         <v>169.3364886800001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27722,7 +26752,7 @@
         <v>168.8760886800001</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27755,7 +26785,7 @@
         <v>168.9349924600001</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27788,7 +26818,7 @@
         <v>168.7208924600001</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27821,7 +26851,7 @@
         <v>169.3956924600001</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27854,7 +26884,7 @@
         <v>171.6545924600001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27887,7 +26917,7 @@
         <v>173.3046924600002</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27920,7 +26950,7 @@
         <v>173.1796924600002</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27953,7 +26983,7 @@
         <v>168.9005924600002</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27986,7 +27016,7 @@
         <v>165.8158924600002</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28019,7 +27049,7 @@
         <v>165.1689948700001</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28052,7 +27082,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28085,7 +27115,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28118,7 +27148,7 @@
         <v>165.4815948700002</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28151,7 +27181,7 @@
         <v>162.3187855600002</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28184,7 +27214,7 @@
         <v>160.7366490300001</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28217,7 +27247,7 @@
         <v>161.0867490300001</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28250,7 +27280,7 @@
         <v>161.6060811600001</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28283,7 +27313,7 @@
         <v>160.6340980100001</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28316,7 +27346,7 @@
         <v>160.6061980100002</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28349,7 +27379,7 @@
         <v>160.7311980100002</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28382,7 +27412,7 @@
         <v>160.7311980100002</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28613,7 +27643,7 @@
         <v>155.2719138600002</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29108,7 +28138,7 @@
         <v>168.9106524200002</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29141,7 +28171,7 @@
         <v>168.9106524200002</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29174,7 +28204,7 @@
         <v>165.3456524200002</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29207,7 +28237,7 @@
         <v>165.1252524200002</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29240,7 +28270,7 @@
         <v>166.7144524200002</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29273,7 +28303,7 @@
         <v>166.6066524200002</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29306,7 +28336,7 @@
         <v>166.9856524200002</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29339,7 +28369,7 @@
         <v>166.3739524200001</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29405,7 +28435,7 @@
         <v>170.4870524200001</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29438,7 +28468,7 @@
         <v>170.4602922600001</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29471,7 +28501,7 @@
         <v>170.4602922600001</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29504,7 +28534,7 @@
         <v>170.5913924000001</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29537,7 +28567,7 @@
         <v>170.5913924000001</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29570,7 +28600,7 @@
         <v>170.4063924000001</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29603,7 +28633,7 @@
         <v>170.5575924000001</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29636,7 +28666,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29669,7 +28699,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29702,7 +28732,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29735,7 +28765,7 @@
         <v>171.0173924000001</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29768,7 +28798,7 @@
         <v>170.8827924000001</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29801,7 +28831,7 @@
         <v>174.2244884000001</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29834,7 +28864,7 @@
         <v>172.5512884000001</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29867,7 +28897,7 @@
         <v>171.1868884000001</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29900,7 +28930,7 @@
         <v>171.1868884000001</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29933,7 +28963,7 @@
         <v>169.3388884000001</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29966,7 +28996,7 @@
         <v>172.5631884000001</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29999,7 +29029,7 @@
         <v>171.6521884000001</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30032,7 +29062,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30065,7 +29095,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30098,7 +29128,7 @@
         <v>174.3432884000001</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30131,7 +29161,7 @@
         <v>172.7227884000001</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30164,7 +29194,7 @@
         <v>165.7796884000001</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30197,7 +29227,7 @@
         <v>168.4811884000001</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30230,7 +29260,7 @@
         <v>168.1731926000002</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30263,7 +29293,7 @@
         <v>169.3199926000002</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30296,7 +29326,7 @@
         <v>169.9465926000002</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30329,7 +29359,7 @@
         <v>167.6657926000002</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30362,7 +29392,7 @@
         <v>168.1498925600002</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30395,7 +29425,7 @@
         <v>168.2213926000002</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30428,7 +29458,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30461,7 +29491,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30494,7 +29524,7 @@
         <v>168.1857926000002</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30527,7 +29557,7 @@
         <v>165.8612926000002</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30560,7 +29590,7 @@
         <v>166.9567926000002</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30593,7 +29623,7 @@
         <v>165.6499004100002</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30626,7 +29656,7 @@
         <v>165.6499004100002</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30659,7 +29689,7 @@
         <v>172.8371004100001</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30692,7 +29722,7 @@
         <v>171.8731004100001</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30725,7 +29755,7 @@
         <v>173.5102004100002</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30758,7 +29788,7 @@
         <v>173.5965004100001</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30791,7 +29821,7 @@
         <v>173.5965004100001</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30824,7 +29854,7 @@
         <v>176.5489004100002</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30857,7 +29887,7 @@
         <v>191.1565004100001</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30890,7 +29920,7 @@
         <v>223.5641013900001</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30923,7 +29953,7 @@
         <v>226.7788013900001</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30956,7 +29986,7 @@
         <v>240.2364013900001</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30989,7 +30019,7 @@
         <v>226.1448013900001</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31022,7 +30052,7 @@
         <v>241.6696637000001</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31055,7 +30085,7 @@
         <v>247.6111892100001</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31088,7 +30118,7 @@
         <v>240.9236206400001</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31121,7 +30151,7 @@
         <v>247.2543894200001</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31154,7 +30184,7 @@
         <v>227.4263723800001</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31187,7 +30217,7 @@
         <v>231.6780723600002</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31220,7 +30250,7 @@
         <v>222.8836037900002</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31253,7 +30283,7 @@
         <v>208.1217037600002</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31286,7 +30316,7 @@
         <v>201.8161107000002</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31319,7 +30349,7 @@
         <v>183.3329924400002</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31352,7 +30382,7 @@
         <v>162.8014796700002</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31385,7 +30415,7 @@
         <v>167.0503242000002</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31418,7 +30448,7 @@
         <v>174.6490604500002</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31451,7 +30481,7 @@
         <v>169.6503542800002</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31484,7 +30514,7 @@
         <v>170.6473542800002</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31517,7 +30547,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31550,7 +30580,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31583,7 +30613,7 @@
         <v>167.9464989500002</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31616,7 +30646,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31649,7 +30679,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31682,7 +30712,7 @@
         <v>174.1082720300002</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31715,7 +30745,7 @@
         <v>175.5086538300002</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31748,7 +30778,7 @@
         <v>177.2974538300002</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31781,7 +30811,7 @@
         <v>181.5118463200002</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31814,7 +30844,7 @@
         <v>181.5118463200002</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31847,7 +30877,7 @@
         <v>182.0291463200002</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31880,7 +30910,7 @@
         <v>182.0291463200002</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31913,7 +30943,7 @@
         <v>183.4090450300002</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31946,7 +30976,7 @@
         <v>182.0358213000002</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32441,7 +31471,7 @@
         <v>174.7209106000001</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32474,7 +31504,7 @@
         <v>172.8631106000001</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32507,7 +31537,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32540,7 +31570,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32573,7 +31603,7 @@
         <v>171.0534106000001</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32606,7 +31636,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32639,7 +31669,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32672,7 +31702,7 @@
         <v>171.2774106000001</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32705,7 +31735,7 @@
         <v>161.4839106000001</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32738,7 +31768,7 @@
         <v>161.4839106000001</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32771,7 +31801,7 @@
         <v>161.5952106000001</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32804,7 +31834,7 @@
         <v>161.4936106000002</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32837,7 +31867,7 @@
         <v>161.4238800100001</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32870,7 +31900,7 @@
         <v>162.6316800100001</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32903,7 +31933,7 @@
         <v>159.8577241400001</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32936,7 +31966,7 @@
         <v>159.8782229800001</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32969,7 +31999,7 @@
         <v>159.8615229800001</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33002,7 +32032,7 @@
         <v>161.3109875200001</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33035,7 +32065,7 @@
         <v>161.7451812000001</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33068,7 +32098,7 @@
         <v>161.4124812000001</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33101,7 +32131,7 @@
         <v>161.6003822700002</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33134,7 +32164,7 @@
         <v>160.9090822700001</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33167,7 +32197,7 @@
         <v>161.3272822700002</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33200,7 +32230,7 @@
         <v>159.7013822700002</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33233,7 +32263,7 @@
         <v>159.7013822700002</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33266,7 +32296,7 @@
         <v>160.0635822700002</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33299,7 +32329,7 @@
         <v>92.21153720000015</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33332,7 +32362,7 @@
         <v>106.8448949800001</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33365,7 +32395,7 @@
         <v>103.7920035100001</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33398,7 +32428,7 @@
         <v>103.7920035100001</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33431,7 +32461,7 @@
         <v>112.7202120400001</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33464,7 +32494,7 @@
         <v>96.59367479000015</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33497,7 +32527,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33530,7 +32560,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33563,7 +32593,7 @@
         <v>73.62033665000016</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33596,7 +32626,7 @@
         <v>67.69843665000016</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33629,7 +32659,7 @@
         <v>77.63013665000017</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33662,7 +32692,7 @@
         <v>79.90431656000017</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33695,7 +32725,7 @@
         <v>79.29751656000016</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33728,7 +32758,7 @@
         <v>82.01511656000017</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -43430,11 +42460,17 @@
         <v>-78.22760982999986</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>9870000</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43463,11 +42499,17 @@
         <v>-82.58850982999986</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>9872000</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43496,11 +42538,17 @@
         <v>-77.62927476999987</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>9871000</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43529,11 +42577,17 @@
         <v>-74.59097476999986</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>9873000</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43562,11 +42616,17 @@
         <v>-75.85837476999986</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>9878000</v>
+      </c>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43595,11 +42655,17 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>9869000</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43628,11 +42694,17 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>9870000</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43661,11 +42733,17 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>9870000</v>
+      </c>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43694,11 +42772,17 @@
         <v>-70.81717173999985</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>9870000</v>
+      </c>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43727,11 +42811,17 @@
         <v>-67.84767173999985</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>9871000</v>
+      </c>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43760,11 +42850,17 @@
         <v>-67.84767173999985</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>9873000</v>
+      </c>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43793,11 +42889,17 @@
         <v>-65.03987173999985</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>9873000</v>
+      </c>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43826,11 +42928,17 @@
         <v>-69.04817173999986</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>9875000</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43859,11 +42967,17 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>9871000</v>
+      </c>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -43892,11 +43006,17 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>9874000</v>
+      </c>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -43925,11 +43045,17 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9874000</v>
+      </c>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -43958,11 +43084,17 @@
         <v>-71.40527173999986</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9874000</v>
+      </c>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -43991,11 +43123,17 @@
         <v>-70.23066886999986</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>9872000</v>
+      </c>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -44024,11 +43162,17 @@
         <v>-62.64807173999986</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9873000</v>
+      </c>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -44057,11 +43201,17 @@
         <v>-57.48735540999986</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>9880000</v>
+      </c>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -44094,7 +43244,11 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -44127,7 +43281,11 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -44160,7 +43318,11 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -44193,7 +43355,11 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -44226,7 +43392,11 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -44259,7 +43429,11 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -44292,7 +43466,11 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -44325,7 +43503,11 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -44358,7 +43540,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44391,7 +43577,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44424,7 +43614,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44457,7 +43651,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44490,7 +43688,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44523,7 +43725,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44556,7 +43762,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -44589,7 +43799,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -44622,7 +43836,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44655,7 +43873,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44688,7 +43910,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44721,7 +43947,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44754,7 +43984,11 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44787,7 +44021,11 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44820,7 +44058,11 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -44853,13 +44095,17 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
       <c r="M1318" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>